--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
@@ -43,16 +43,7 @@
     <t>LINK MÁY</t>
   </si>
   <si>
-    <t>ĐƠN VỊ2</t>
-  </si>
-  <si>
-    <t>LINK2</t>
-  </si>
-  <si>
     <t>LOGO</t>
-  </si>
-  <si>
-    <t>DI ĐỘNG</t>
   </si>
   <si>
     <t>MÁY BÀN</t>
@@ -64,23 +55,6 @@
     <t>ĐỊA CHỈ</t>
   </si>
   <si>
-    <t>TÊN CÁN BỘ</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>link3</t>
-  </si>
-  <si>
-    <t>TRƯỞNG 
-CA</t>
-  </si>
-  <si>
-    <t>PHÓ TRƯỞNG 
-CA</t>
-  </si>
-  <si>
     <t>LINK
 MÁY</t>
   </si>
@@ -88,16 +62,12 @@
     <t>LINK
 TAY</t>
   </si>
-  <si>
-    <t>TỈNH
-/THÀNH PHỐ</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,34 +130,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="20"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Times New Roman"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -214,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -237,40 +190,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -289,10 +215,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -307,28 +230,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -336,175 +247,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <strike val="0"/>
@@ -744,26 +487,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
-  <autoFilter ref="A1:Q5"/>
-  <tableColumns count="17">
-    <tableColumn id="1" name="STT" dataDxfId="16"/>
-    <tableColumn id="2" name="ĐƠN VỊ" dataDxfId="15"/>
-    <tableColumn id="3" name="LINK_x000a_MÁY" dataDxfId="14"/>
-    <tableColumn id="8" name="LINK_x000a_TAY" dataDxfId="13" dataCellStyle="Hyperlink"/>
-    <tableColumn id="10" name="ĐỊA CHỈ" dataDxfId="12" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" name="EMAIL" dataDxfId="11"/>
-    <tableColumn id="11" name="LOGO" dataDxfId="10"/>
-    <tableColumn id="5" name="MÁY BÀN" dataDxfId="9"/>
-    <tableColumn id="14" name="TÊN CÁN BỘ" dataDxfId="8"/>
-    <tableColumn id="15" name="DI ĐỘNG" dataDxfId="7"/>
-    <tableColumn id="16" name="ĐƠN VỊ2" dataDxfId="6"/>
-    <tableColumn id="6" name="TỈNH_x000a_/THÀNH PHỐ" dataDxfId="5"/>
-    <tableColumn id="17" name="LINK2" dataDxfId="4"/>
-    <tableColumn id="7" name="TRƯỞNG _x000a_CA" dataDxfId="3"/>
-    <tableColumn id="9" name="link" dataDxfId="2"/>
-    <tableColumn id="12" name="PHÓ TRƯỞNG _x000a_CA" dataDxfId="1"/>
-    <tableColumn id="13" name="link3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A1:H5"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="STT" dataDxfId="7"/>
+    <tableColumn id="2" name="ĐƠN VỊ" dataDxfId="6"/>
+    <tableColumn id="3" name="LINK_x000a_MÁY" dataDxfId="5"/>
+    <tableColumn id="8" name="LINK_x000a_TAY" dataDxfId="4" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" name="ĐỊA CHỈ" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="EMAIL" dataDxfId="2"/>
+    <tableColumn id="11" name="LOGO" dataDxfId="1"/>
+    <tableColumn id="5" name="MÁY BÀN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1092,182 +826,112 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="55.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="13" customWidth="1"/>
-    <col min="6" max="7" width="13.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.75" style="3" customWidth="1"/>
-    <col min="10" max="12" width="19.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="55.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="11" customWidth="1"/>
+    <col min="6" max="7" width="13.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="C1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" s="2" t="str">
         <f>HYPERLINK("https://www.facebook.com/caqbadinh/", "Công an quận Ba Đình  thành phố Hà Nội")</f>
         <v>Công an quận Ba Đình  thành phố Hà Nội</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="D2" s="11"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="2" t="str">
         <f>HYPERLINK("https://badinh.hanoi.gov.vn/", "UBND Ủy ban nhân dân quận Ba Đình  thành phố Hà Nội")</f>
         <v>UBND Ủy ban nhân dân quận Ba Đình  thành phố Hà Nội</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="2" t="str">
         <f>HYPERLINK("https://www.facebook.com/doanthanhniencahk/?locale=zh_CN", "Công an quận Hoàn Kiếm  thành phố Hà Nội")</f>
         <v>Công an quận Hoàn Kiếm  thành phố Hà Nội</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="D4" s="11"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="2" t="str">
         <f>HYPERLINK("https://hoankiem.hanoi.gov.vn/", "UBND Ủy ban nhân dân quận Hoàn Kiếm  thành phố Hà Nội")</f>
         <v>UBND Ủy ban nhân dân quận Hoàn Kiếm  thành phố Hà Nội</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
